--- a/Atividade 5 informatica.xlsx
+++ b/Atividade 5 informatica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA96BA24-5ADF-45C1-B4C4-5AD31629E5AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA96BA24-5ADF-45C1-B4C4-5AD31629E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,23 @@
     <sheet name="despesa_funcao (1)" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1496,16 +1512,16 @@
     <t>90.10.3.3.90.36.16.482.0012.2.002.01.1100000</t>
   </si>
   <si>
+    <t>Qual o valor pago em todas despesas?</t>
+  </si>
+  <si>
+    <t>Qual valor gasto do Tesouro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qual valor pago no Auxílio Alimentação?</t>
+  </si>
+  <si>
     <t>Qual maior valor empenhado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Qual valor pago no Auxílio Alimentação?</t>
-  </si>
-  <si>
-    <t>Qual o valor pago em todas despesas?</t>
-  </si>
-  <si>
-    <t>Qual valor gasto do Tesouro?</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,7 +2090,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2376,7 +2392,7 @@
       <selection activeCell="F379" sqref="F379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
@@ -2390,7 +2406,7 @@
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -2460,7 +2476,7 @@
         <v>87521.68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -2495,7 +2511,7 @@
         <v>909660.34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2530,7 +2546,7 @@
         <v>221405.73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -2565,7 +2581,7 @@
         <v>8278.2900000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>13084.41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -2635,7 +2651,7 @@
         <v>690105.29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -2670,7 +2686,7 @@
         <v>1560323.43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>720860.62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -2740,7 +2756,7 @@
         <v>234910</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -2775,7 +2791,7 @@
         <v>674143.81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -2810,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -2845,7 +2861,7 @@
         <v>7531.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -2880,7 +2896,7 @@
         <v>836604.83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2025</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>54462.86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2025</v>
       </c>
@@ -2950,7 +2966,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2985,7 +3001,7 @@
         <v>512.76</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>2025</v>
       </c>
@@ -3020,7 +3036,7 @@
         <v>622.79999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>2025</v>
       </c>
@@ -3055,7 +3071,7 @@
         <v>69288.55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -3090,7 +3106,7 @@
         <v>6234.02</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>2025</v>
       </c>
@@ -3125,7 +3141,7 @@
         <v>19867.91</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2025</v>
       </c>
@@ -3160,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>2025</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>96631.25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>2025</v>
       </c>
@@ -3230,7 +3246,7 @@
         <v>84348.35</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -3265,7 +3281,7 @@
         <v>392.74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>2025</v>
       </c>
@@ -3300,7 +3316,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -3335,7 +3351,7 @@
         <v>1816027.1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>2025</v>
       </c>
@@ -3370,7 +3386,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>2025</v>
       </c>
@@ -3405,7 +3421,7 @@
         <v>314283.33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2025</v>
       </c>
@@ -3440,7 +3456,7 @@
         <v>52530.52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -3475,7 +3491,7 @@
         <v>5346.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -3510,7 +3526,7 @@
         <v>1480292.95</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2025</v>
       </c>
@@ -3545,7 +3561,7 @@
         <v>2291074.35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>2025</v>
       </c>
@@ -3580,7 +3596,7 @@
         <v>82.46</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>2025</v>
       </c>
@@ -3615,7 +3631,7 @@
         <v>552382.93999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>2025</v>
       </c>
@@ -3650,7 +3666,7 @@
         <v>308834.28000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>2025</v>
       </c>
@@ -3685,7 +3701,7 @@
         <v>721.3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>2025</v>
       </c>
@@ -3720,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>2025</v>
       </c>
@@ -3755,7 +3771,7 @@
         <v>31153.47</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>2025</v>
       </c>
@@ -3790,7 +3806,7 @@
         <v>35123.79</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>2025</v>
       </c>
@@ -3825,7 +3841,7 @@
         <v>765190.85</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -3860,7 +3876,7 @@
         <v>299911.07</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>2025</v>
       </c>
@@ -3895,7 +3911,7 @@
         <v>149767.10999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>2025</v>
       </c>
@@ -3930,7 +3946,7 @@
         <v>62132.19</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>2025</v>
       </c>
@@ -3965,7 +3981,7 @@
         <v>77052.61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>2025</v>
       </c>
@@ -4000,7 +4016,7 @@
         <v>39099.769999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>2025</v>
       </c>
@@ -4035,7 +4051,7 @@
         <v>1373.35</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>2025</v>
       </c>
@@ -4070,7 +4086,7 @@
         <v>50601.59</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>2025</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>757647.35999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>2025</v>
       </c>
@@ -4140,7 +4156,7 @@
         <v>268388.17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>2025</v>
       </c>
@@ -4175,7 +4191,7 @@
         <v>55876.5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>2025</v>
       </c>
@@ -4210,7 +4226,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>2025</v>
       </c>
@@ -4245,7 +4261,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>2025</v>
       </c>
@@ -4280,7 +4296,7 @@
         <v>17042.810000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>2025</v>
       </c>
@@ -4315,7 +4331,7 @@
         <v>24244.45</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>2025</v>
       </c>
@@ -4350,7 +4366,7 @@
         <v>1676201.32</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>2025</v>
       </c>
@@ -4385,7 +4401,7 @@
         <v>13934.62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>2025</v>
       </c>
@@ -4420,7 +4436,7 @@
         <v>130150.6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>2025</v>
       </c>
@@ -4455,7 +4471,7 @@
         <v>726910.03</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>2025</v>
       </c>
@@ -4490,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>2025</v>
       </c>
@@ -4525,7 +4541,7 @@
         <v>491360.22</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>2025</v>
       </c>
@@ -4560,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>2025</v>
       </c>
@@ -4595,7 +4611,7 @@
         <v>21268.61</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>2025</v>
       </c>
@@ -4630,7 +4646,7 @@
         <v>184657.98</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>2025</v>
       </c>
@@ -4665,7 +4681,7 @@
         <v>48899.31</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>2025</v>
       </c>
@@ -4700,7 +4716,7 @@
         <v>41125.56</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>2025</v>
       </c>
@@ -4735,7 +4751,7 @@
         <v>535544.96</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>2025</v>
       </c>
@@ -4770,7 +4786,7 @@
         <v>7120672.7999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>2025</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>2036530.13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>2025</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>5646.09</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>2025</v>
       </c>
@@ -4875,7 +4891,7 @@
         <v>55662.8</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>2025</v>
       </c>
@@ -4910,7 +4926,7 @@
         <v>4869.2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>2025</v>
       </c>
@@ -4945,7 +4961,7 @@
         <v>55116.79</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>2025</v>
       </c>
@@ -4980,7 +4996,7 @@
         <v>924.6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>2025</v>
       </c>
@@ -5015,7 +5031,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>2025</v>
       </c>
@@ -5050,7 +5066,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>2025</v>
       </c>
@@ -5085,7 +5101,7 @@
         <v>292789.44</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>2025</v>
       </c>
@@ -5120,7 +5136,7 @@
         <v>840950.23</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>2025</v>
       </c>
@@ -5155,7 +5171,7 @@
         <v>232068.12</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>2025</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>601433.19999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>2025</v>
       </c>
@@ -5225,7 +5241,7 @@
         <v>1227248.58</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>2025</v>
       </c>
@@ -5260,7 +5276,7 @@
         <v>34615.99</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>2025</v>
       </c>
@@ -5295,7 +5311,7 @@
         <v>17860</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>2025</v>
       </c>
@@ -5330,7 +5346,7 @@
         <v>35085</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>2025</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>11340.99</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>2025</v>
       </c>
@@ -5400,7 +5416,7 @@
         <v>21153.86</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>2025</v>
       </c>
@@ -5435,7 +5451,7 @@
         <v>101493.06</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>2025</v>
       </c>
@@ -5470,7 +5486,7 @@
         <v>961288.83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>2025</v>
       </c>
@@ -5505,7 +5521,7 @@
         <v>29819.64</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>2025</v>
       </c>
@@ -5540,7 +5556,7 @@
         <v>295296.93</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>2025</v>
       </c>
@@ -5575,7 +5591,7 @@
         <v>411717.39</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>2025</v>
       </c>
@@ -5610,7 +5626,7 @@
         <v>1400874.4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>2025</v>
       </c>
@@ -5645,7 +5661,7 @@
         <v>549005.91</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>2025</v>
       </c>
@@ -5680,7 +5696,7 @@
         <v>1250522.08</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>2025</v>
       </c>
@@ -5715,7 +5731,7 @@
         <v>1136924.8899999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>2025</v>
       </c>
@@ -5750,7 +5766,7 @@
         <v>662.81</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>2025</v>
       </c>
@@ -5785,7 +5801,7 @@
         <v>2205507.91</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>2025</v>
       </c>
@@ -5820,7 +5836,7 @@
         <v>1723000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>2025</v>
       </c>
@@ -5855,7 +5871,7 @@
         <v>381687.17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>2025</v>
       </c>
@@ -5890,7 +5906,7 @@
         <v>804605.57</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>2025</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>7024746</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>2025</v>
       </c>
@@ -5960,7 +5976,7 @@
         <v>779031.4</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>2025</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>1615745.85</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>2025</v>
       </c>
@@ -6030,7 +6046,7 @@
         <v>2172097.2000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>2025</v>
       </c>
@@ -6065,7 +6081,7 @@
         <v>335060.84999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>2025</v>
       </c>
@@ -6100,7 +6116,7 @@
         <v>1742203.28</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>2025</v>
       </c>
@@ -6135,7 +6151,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>2025</v>
       </c>
@@ -6170,7 +6186,7 @@
         <v>78951.16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>2025</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>847857.12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>2025</v>
       </c>
@@ -6240,7 +6256,7 @@
         <v>70822.679999999993</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>2025</v>
       </c>
@@ -6275,7 +6291,7 @@
         <v>841956.8</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>2025</v>
       </c>
@@ -6310,7 +6326,7 @@
         <v>12420</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>2025</v>
       </c>
@@ -6345,7 +6361,7 @@
         <v>39517.919999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>2025</v>
       </c>
@@ -6380,7 +6396,7 @@
         <v>54745.14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>2025</v>
       </c>
@@ -6415,7 +6431,7 @@
         <v>198014.47</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>2025</v>
       </c>
@@ -6450,7 +6466,7 @@
         <v>1915899.99</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>2025</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>2438663.0699999998</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>2025</v>
       </c>
@@ -6520,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>2025</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>2025</v>
       </c>
@@ -6590,7 +6606,7 @@
         <v>221835</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>2025</v>
       </c>
@@ -6625,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>2025</v>
       </c>
@@ -6660,7 +6676,7 @@
         <v>3575902.82</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>2025</v>
       </c>
@@ -6695,7 +6711,7 @@
         <v>1427594.65</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>2025</v>
       </c>
@@ -6730,7 +6746,7 @@
         <v>5977.4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>2025</v>
       </c>
@@ -6765,7 +6781,7 @@
         <v>14123768.74</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>2025</v>
       </c>
@@ -6800,7 +6816,7 @@
         <v>973440.39</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>2025</v>
       </c>
@@ -6835,7 +6851,7 @@
         <v>10057497.93</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>2025</v>
       </c>
@@ -6870,7 +6886,7 @@
         <v>816738.59</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>2025</v>
       </c>
@@ -6905,7 +6921,7 @@
         <v>242877.89</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>2025</v>
       </c>
@@ -6940,7 +6956,7 @@
         <v>646229.24</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>2025</v>
       </c>
@@ -6975,7 +6991,7 @@
         <v>197860.25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>2025</v>
       </c>
@@ -7010,7 +7026,7 @@
         <v>838353.95</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>2025</v>
       </c>
@@ -7045,7 +7061,7 @@
         <v>2381.7600000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>2025</v>
       </c>
@@ -7080,7 +7096,7 @@
         <v>304566.63</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>2025</v>
       </c>
@@ -7115,7 +7131,7 @@
         <v>14410.07</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>2025</v>
       </c>
@@ -7150,7 +7166,7 @@
         <v>489.2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>2025</v>
       </c>
@@ -7185,7 +7201,7 @@
         <v>38631.14</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>2025</v>
       </c>
@@ -7220,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>2025</v>
       </c>
@@ -7255,7 +7271,7 @@
         <v>125992.24</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>2025</v>
       </c>
@@ -7290,7 +7306,7 @@
         <v>8183.53</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>2025</v>
       </c>
@@ -7325,7 +7341,7 @@
         <v>5861324.2800000003</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>2025</v>
       </c>
@@ -7360,7 +7376,7 @@
         <v>536852.27</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>2025</v>
       </c>
@@ -7395,7 +7411,7 @@
         <v>4182484.7</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>2025</v>
       </c>
@@ -7430,7 +7446,7 @@
         <v>395107.78</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>2025</v>
       </c>
@@ -7465,7 +7481,7 @@
         <v>99362.59</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>2025</v>
       </c>
@@ -7500,7 +7516,7 @@
         <v>1420419.31</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>2025</v>
       </c>
@@ -7535,7 +7551,7 @@
         <v>16175922.039999999</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>2025</v>
       </c>
@@ -7570,7 +7586,7 @@
         <v>10950357.18</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>2025</v>
       </c>
@@ -7605,7 +7621,7 @@
         <v>597869.1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>2025</v>
       </c>
@@ -7640,7 +7656,7 @@
         <v>88353.97</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>2025</v>
       </c>
@@ -7675,7 +7691,7 @@
         <v>2136837.5299999998</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>2025</v>
       </c>
@@ -7710,7 +7726,7 @@
         <v>1458.19</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>2025</v>
       </c>
@@ -7745,7 +7761,7 @@
         <v>219225.06</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>2025</v>
       </c>
@@ -7780,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>2025</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>10583.71</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>2025</v>
       </c>
@@ -7850,7 +7866,7 @@
         <v>135533.5</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>2025</v>
       </c>
@@ -7885,7 +7901,7 @@
         <v>51024.98</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>2025</v>
       </c>
@@ -7920,7 +7936,7 @@
         <v>126473.27</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>2025</v>
       </c>
@@ -7955,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>2025</v>
       </c>
@@ -7990,7 +8006,7 @@
         <v>1253921.1599999999</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>2025</v>
       </c>
@@ -8025,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>2025</v>
       </c>
@@ -8060,7 +8076,7 @@
         <v>646426.19999999995</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>2025</v>
       </c>
@@ -8095,7 +8111,7 @@
         <v>285.95999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>2025</v>
       </c>
@@ -8130,7 +8146,7 @@
         <v>25319</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>2025</v>
       </c>
@@ -8165,7 +8181,7 @@
         <v>835453.24</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>2025</v>
       </c>
@@ -8200,7 +8216,7 @@
         <v>797053.55</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>2025</v>
       </c>
@@ -8235,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>2025</v>
       </c>
@@ -8270,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>2025</v>
       </c>
@@ -8305,7 +8321,7 @@
         <v>288143.71000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>2025</v>
       </c>
@@ -8340,7 +8356,7 @@
         <v>6483476.3600000003</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>2025</v>
       </c>
@@ -8375,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>2025</v>
       </c>
@@ -8410,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>2025</v>
       </c>
@@ -8445,7 +8461,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>2025</v>
       </c>
@@ -8480,7 +8496,7 @@
         <v>4893.78</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>2025</v>
       </c>
@@ -8515,7 +8531,7 @@
         <v>4849.42</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>2025</v>
       </c>
@@ -8550,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>2025</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>2025</v>
       </c>
@@ -8620,7 +8636,7 @@
         <v>140608.43</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>2025</v>
       </c>
@@ -8655,7 +8671,7 @@
         <v>8203.93</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>2025</v>
       </c>
@@ -8690,7 +8706,7 @@
         <v>21534.82</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>2025</v>
       </c>
@@ -8725,7 +8741,7 @@
         <v>41882.85</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>2025</v>
       </c>
@@ -8760,7 +8776,7 @@
         <v>107185.52</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>2025</v>
       </c>
@@ -8795,7 +8811,7 @@
         <v>119476.54</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>2025</v>
       </c>
@@ -8830,7 +8846,7 @@
         <v>241142.55</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>2025</v>
       </c>
@@ -8865,7 +8881,7 @@
         <v>7495.21</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>2025</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>2025</v>
       </c>
@@ -8935,7 +8951,7 @@
         <v>412500</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>2025</v>
       </c>
@@ -8970,7 +8986,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>2025</v>
       </c>
@@ -9005,7 +9021,7 @@
         <v>5007.6000000000004</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>2025</v>
       </c>
@@ -9040,7 +9056,7 @@
         <v>6955.8</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>2025</v>
       </c>
@@ -9075,7 +9091,7 @@
         <v>1610383.28</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>2025</v>
       </c>
@@ -9110,7 +9126,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>2025</v>
       </c>
@@ -9145,7 +9161,7 @@
         <v>1198789.43</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>2025</v>
       </c>
@@ -9180,7 +9196,7 @@
         <v>6328.44</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>2025</v>
       </c>
@@ -9215,7 +9231,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>2025</v>
       </c>
@@ -9250,7 +9266,7 @@
         <v>498263.76</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>2025</v>
       </c>
@@ -9285,7 +9301,7 @@
         <v>10665190.09</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>2025</v>
       </c>
@@ -9320,7 +9336,7 @@
         <v>10260286.640000001</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>2025</v>
       </c>
@@ -9355,7 +9371,7 @@
         <v>873257.25</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>2025</v>
       </c>
@@ -9390,7 +9406,7 @@
         <v>49954.44</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>2025</v>
       </c>
@@ -9425,7 +9441,7 @@
         <v>1943.26</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>2025</v>
       </c>
@@ -9460,7 +9476,7 @@
         <v>1777080.96</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>2025</v>
       </c>
@@ -9495,7 +9511,7 @@
         <v>50457.53</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>2025</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v>28322.86</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>2025</v>
       </c>
@@ -9565,7 +9581,7 @@
         <v>6300.83</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>2025</v>
       </c>
@@ -9600,7 +9616,7 @@
         <v>1891.77</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>2025</v>
       </c>
@@ -9635,7 +9651,7 @@
         <v>498889.66</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>2025</v>
       </c>
@@ -9670,7 +9686,7 @@
         <v>48173.29</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>2025</v>
       </c>
@@ -9705,7 +9721,7 @@
         <v>-513</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>2025</v>
       </c>
@@ -9740,7 +9756,7 @@
         <v>68488.320000000007</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>2025</v>
       </c>
@@ -9775,7 +9791,7 @@
         <v>140744.24</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>2025</v>
       </c>
@@ -9810,7 +9826,7 @@
         <v>28571.79</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213">
         <v>2025</v>
       </c>
@@ -9845,7 +9861,7 @@
         <v>24453.52</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214">
         <v>2025</v>
       </c>
@@ -9880,7 +9896,7 @@
         <v>697520.45</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>2025</v>
       </c>
@@ -9915,7 +9931,7 @@
         <v>8791.25</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216">
         <v>2025</v>
       </c>
@@ -9950,7 +9966,7 @@
         <v>360797.34</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217">
         <v>2025</v>
       </c>
@@ -9985,7 +10001,7 @@
         <v>454922.16</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218">
         <v>2025</v>
       </c>
@@ -10020,7 +10036,7 @@
         <v>63405.01</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219">
         <v>2025</v>
       </c>
@@ -10055,7 +10071,7 @@
         <v>71258.66</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220">
         <v>2025</v>
       </c>
@@ -10090,7 +10106,7 @@
         <v>132750</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>2025</v>
       </c>
@@ -10125,7 +10141,7 @@
         <v>17617428.370000001</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222">
         <v>2025</v>
       </c>
@@ -10160,7 +10176,7 @@
         <v>6934400</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223">
         <v>2025</v>
       </c>
@@ -10195,7 +10211,7 @@
         <v>5765415.3300000001</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224">
         <v>2025</v>
       </c>
@@ -10230,7 +10246,7 @@
         <v>1061685.6599999999</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225">
         <v>2025</v>
       </c>
@@ -10265,7 +10281,7 @@
         <v>470728.7</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226">
         <v>2025</v>
       </c>
@@ -10300,7 +10316,7 @@
         <v>4545823.95</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>2025</v>
       </c>
@@ -10335,7 +10351,7 @@
         <v>977402.92</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228">
         <v>2025</v>
       </c>
@@ -10370,7 +10386,7 @@
         <v>64791.63</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>2025</v>
       </c>
@@ -10405,7 +10421,7 @@
         <v>359795.15</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>2025</v>
       </c>
@@ -10440,7 +10456,7 @@
         <v>302634.88</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231">
         <v>2025</v>
       </c>
@@ -10475,7 +10491,7 @@
         <v>768740.47</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232">
         <v>2025</v>
       </c>
@@ -10510,7 +10526,7 @@
         <v>307322.28000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233">
         <v>2025</v>
       </c>
@@ -10545,7 +10561,7 @@
         <v>2429.9899999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234">
         <v>2025</v>
       </c>
@@ -10580,7 +10596,7 @@
         <v>247308.52</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235">
         <v>2025</v>
       </c>
@@ -10615,7 +10631,7 @@
         <v>204914.1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>2025</v>
       </c>
@@ -10650,7 +10666,7 @@
         <v>3626.46</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237">
         <v>2025</v>
       </c>
@@ -10685,7 +10701,7 @@
         <v>71534.48</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238">
         <v>2025</v>
       </c>
@@ -10720,7 +10736,7 @@
         <v>21592.07</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239">
         <v>2025</v>
       </c>
@@ -10755,7 +10771,7 @@
         <v>1350452.54</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240">
         <v>2025</v>
       </c>
@@ -10790,7 +10806,7 @@
         <v>77606.240000000005</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11">
       <c r="A241">
         <v>2025</v>
       </c>
@@ -10825,7 +10841,7 @@
         <v>89360.54</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11">
       <c r="A242">
         <v>2025</v>
       </c>
@@ -10860,7 +10876,7 @@
         <v>3499119.14</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243">
         <v>2025</v>
       </c>
@@ -10895,7 +10911,7 @@
         <v>12356.36</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11">
       <c r="A244">
         <v>2025</v>
       </c>
@@ -10930,7 +10946,7 @@
         <v>35877.339999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11">
       <c r="A245">
         <v>2025</v>
       </c>
@@ -10965,7 +10981,7 @@
         <v>671219.15</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11">
       <c r="A246">
         <v>2025</v>
       </c>
@@ -11000,7 +11016,7 @@
         <v>396.7</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>2025</v>
       </c>
@@ -11035,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>2025</v>
       </c>
@@ -11070,7 +11086,7 @@
         <v>25091.7</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249">
         <v>2025</v>
       </c>
@@ -11105,7 +11121,7 @@
         <v>343543.22</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11">
       <c r="A250">
         <v>2025</v>
       </c>
@@ -11140,7 +11156,7 @@
         <v>243802.76</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>2025</v>
       </c>
@@ -11175,7 +11191,7 @@
         <v>133941.13</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>2025</v>
       </c>
@@ -11210,7 +11226,7 @@
         <v>21340</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11">
       <c r="A253">
         <v>2025</v>
       </c>
@@ -11245,7 +11261,7 @@
         <v>621738.5</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11">
       <c r="A254">
         <v>2025</v>
       </c>
@@ -11280,7 +11296,7 @@
         <v>131690.51999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255">
         <v>2025</v>
       </c>
@@ -11315,7 +11331,7 @@
         <v>9580</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>2025</v>
       </c>
@@ -11350,7 +11366,7 @@
         <v>6204.8</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>2025</v>
       </c>
@@ -11385,7 +11401,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258">
         <v>2025</v>
       </c>
@@ -11420,7 +11436,7 @@
         <v>27576</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259">
         <v>2025</v>
       </c>
@@ -11455,7 +11471,7 @@
         <v>759926.62</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260">
         <v>2025</v>
       </c>
@@ -11490,7 +11506,7 @@
         <v>22423.52</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261">
         <v>2025</v>
       </c>
@@ -11525,7 +11541,7 @@
         <v>10599.63</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262">
         <v>2025</v>
       </c>
@@ -11560,7 +11576,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263">
         <v>2025</v>
       </c>
@@ -11595,7 +11611,7 @@
         <v>14394.87</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264">
         <v>2025</v>
       </c>
@@ -11630,7 +11646,7 @@
         <v>115003.33</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265">
         <v>2025</v>
       </c>
@@ -11665,7 +11681,7 @@
         <v>130830</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>2025</v>
       </c>
@@ -11700,7 +11716,7 @@
         <v>299310.12</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>2025</v>
       </c>
@@ -11735,7 +11751,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268">
         <v>2025</v>
       </c>
@@ -11770,7 +11786,7 @@
         <v>105292</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269">
         <v>2025</v>
       </c>
@@ -11805,7 +11821,7 @@
         <v>2081.9299999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270">
         <v>2025</v>
       </c>
@@ -11840,7 +11856,7 @@
         <v>663824.99</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271">
         <v>2025</v>
       </c>
@@ -11875,7 +11891,7 @@
         <v>1180535.98</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272">
         <v>2025</v>
       </c>
@@ -11910,7 +11926,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>2025</v>
       </c>
@@ -11945,7 +11961,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>2025</v>
       </c>
@@ -11980,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>2025</v>
       </c>
@@ -12015,7 +12031,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>2025</v>
       </c>
@@ -12050,7 +12066,7 @@
         <v>20120.8</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>2025</v>
       </c>
@@ -12085,7 +12101,7 @@
         <v>5583.32</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>2025</v>
       </c>
@@ -12120,7 +12136,7 @@
         <v>6543.68</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>2025</v>
       </c>
@@ -12155,7 +12171,7 @@
         <v>66759.03</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280">
         <v>2025</v>
       </c>
@@ -12190,7 +12206,7 @@
         <v>1047616</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281">
         <v>2025</v>
       </c>
@@ -12225,7 +12241,7 @@
         <v>154934</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282">
         <v>2025</v>
       </c>
@@ -12260,7 +12276,7 @@
         <v>1044.1600000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>2025</v>
       </c>
@@ -12295,7 +12311,7 @@
         <v>25393.9</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>2025</v>
       </c>
@@ -12330,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285">
         <v>2025</v>
       </c>
@@ -12365,7 +12381,7 @@
         <v>6042648.1100000003</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286">
         <v>2025</v>
       </c>
@@ -12400,7 +12416,7 @@
         <v>9824.08</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287">
         <v>2025</v>
       </c>
@@ -12435,7 +12451,7 @@
         <v>446763.96</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288">
         <v>2025</v>
       </c>
@@ -12470,7 +12486,7 @@
         <v>619843.57999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289">
         <v>2025</v>
       </c>
@@ -12505,7 +12521,7 @@
         <v>1762561.18</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290">
         <v>2025</v>
       </c>
@@ -12540,7 +12556,7 @@
         <v>795499.83</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291">
         <v>2025</v>
       </c>
@@ -12575,7 +12591,7 @@
         <v>209045.08</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292">
         <v>2025</v>
       </c>
@@ -12610,7 +12626,7 @@
         <v>5421810.5300000003</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293">
         <v>2025</v>
       </c>
@@ -12645,7 +12661,7 @@
         <v>4938286.07</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294">
         <v>2025</v>
       </c>
@@ -12680,7 +12696,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295">
         <v>2025</v>
       </c>
@@ -12715,7 +12731,7 @@
         <v>2043713.4</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296">
         <v>2025</v>
       </c>
@@ -12750,7 +12766,7 @@
         <v>305572.06</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297">
         <v>2025</v>
       </c>
@@ -12785,7 +12801,7 @@
         <v>56820.66</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298">
         <v>2025</v>
       </c>
@@ -12820,7 +12836,7 @@
         <v>498517.49</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299">
         <v>2025</v>
       </c>
@@ -12855,7 +12871,7 @@
         <v>390601.54</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11">
       <c r="A300">
         <v>2025</v>
       </c>
@@ -12890,7 +12906,7 @@
         <v>4907.5200000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11">
       <c r="A301">
         <v>2025</v>
       </c>
@@ -12925,7 +12941,7 @@
         <v>669725.4</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11">
       <c r="A302">
         <v>2025</v>
       </c>
@@ -12960,7 +12976,7 @@
         <v>14253852.15</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11">
       <c r="A303">
         <v>2025</v>
       </c>
@@ -12995,7 +13011,7 @@
         <v>4548428.78</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>2025</v>
       </c>
@@ -13030,7 +13046,7 @@
         <v>4932780</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>2025</v>
       </c>
@@ -13065,7 +13081,7 @@
         <v>243432.64</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>2025</v>
       </c>
@@ -13100,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>2025</v>
       </c>
@@ -13135,7 +13151,7 @@
         <v>67291.98</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>2025</v>
       </c>
@@ -13170,7 +13186,7 @@
         <v>16108</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11">
       <c r="A309">
         <v>2025</v>
       </c>
@@ -13205,7 +13221,7 @@
         <v>463642.8</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11">
       <c r="A310">
         <v>2025</v>
       </c>
@@ -13240,7 +13256,7 @@
         <v>661725.94999999995</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11">
       <c r="A311">
         <v>2025</v>
       </c>
@@ -13275,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11">
       <c r="A312">
         <v>2025</v>
       </c>
@@ -13310,7 +13326,7 @@
         <v>64169.919999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11">
       <c r="A313">
         <v>2025</v>
       </c>
@@ -13345,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11">
       <c r="A314">
         <v>2025</v>
       </c>
@@ -13380,7 +13396,7 @@
         <v>787397.72</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11">
       <c r="A315">
         <v>2025</v>
       </c>
@@ -13415,7 +13431,7 @@
         <v>22054.15</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11">
       <c r="A316">
         <v>2025</v>
       </c>
@@ -13450,7 +13466,7 @@
         <v>2641129.7599999998</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317">
         <v>2025</v>
       </c>
@@ -13485,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318">
         <v>2025</v>
       </c>
@@ -13520,7 +13536,7 @@
         <v>37287.97</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11">
       <c r="A319">
         <v>2025</v>
       </c>
@@ -13555,7 +13571,7 @@
         <v>16281518.18</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11">
       <c r="A320">
         <v>2025</v>
       </c>
@@ -13590,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11">
       <c r="A321">
         <v>2025</v>
       </c>
@@ -13625,7 +13641,7 @@
         <v>-159489.39000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11">
       <c r="A322">
         <v>2025</v>
       </c>
@@ -13660,7 +13676,7 @@
         <v>3545000</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323">
         <v>2025</v>
       </c>
@@ -13695,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11">
       <c r="A324">
         <v>2025</v>
       </c>
@@ -13730,7 +13746,7 @@
         <v>4396.05</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11">
       <c r="A325">
         <v>2025</v>
       </c>
@@ -13765,7 +13781,7 @@
         <v>4667171.13</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11">
       <c r="A326">
         <v>2025</v>
       </c>
@@ -13800,7 +13816,7 @@
         <v>245159.94</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11">
       <c r="A327">
         <v>2025</v>
       </c>
@@ -13835,7 +13851,7 @@
         <v>296802.43</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328">
         <v>2025</v>
       </c>
@@ -13870,7 +13886,7 @@
         <v>747.72</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11">
       <c r="A329">
         <v>2025</v>
       </c>
@@ -13905,7 +13921,7 @@
         <v>487555.61</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11">
       <c r="A330">
         <v>2025</v>
       </c>
@@ -13940,7 +13956,7 @@
         <v>219524.65</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11">
       <c r="A331">
         <v>2025</v>
       </c>
@@ -13975,7 +13991,7 @@
         <v>513.52</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11">
       <c r="A332">
         <v>2025</v>
       </c>
@@ -14010,7 +14026,7 @@
         <v>10412.549999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11">
       <c r="A333">
         <v>2025</v>
       </c>
@@ -14045,7 +14061,7 @@
         <v>55152.97</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11">
       <c r="A334">
         <v>2025</v>
       </c>
@@ -14080,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335">
         <v>2025</v>
       </c>
@@ -14115,7 +14131,7 @@
         <v>21170.33</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11">
       <c r="A336">
         <v>2025</v>
       </c>
@@ -14150,7 +14166,7 @@
         <v>6223.96</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="A337">
         <v>2025</v>
       </c>
@@ -14185,7 +14201,7 @@
         <v>3532369.87</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="A338">
         <v>2025</v>
       </c>
@@ -14220,7 +14236,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339">
         <v>2025</v>
       </c>
@@ -14255,7 +14271,7 @@
         <v>2478.66</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11">
       <c r="A340">
         <v>2025</v>
       </c>
@@ -14290,7 +14306,7 @@
         <v>89830.59</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11">
       <c r="A341">
         <v>2025</v>
       </c>
@@ -14325,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11">
       <c r="A342">
         <v>2025</v>
       </c>
@@ -14360,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343">
         <v>2025</v>
       </c>
@@ -14395,7 +14411,7 @@
         <v>285952.78000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344">
         <v>2025</v>
       </c>
@@ -14430,7 +14446,7 @@
         <v>5609.23</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11">
       <c r="A345">
         <v>2025</v>
       </c>
@@ -14465,7 +14481,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346">
         <v>2025</v>
       </c>
@@ -14500,7 +14516,7 @@
         <v>2258.15</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="A347">
         <v>2025</v>
       </c>
@@ -14535,7 +14551,7 @@
         <v>905979.47</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="A348">
         <v>2025</v>
       </c>
@@ -14570,7 +14586,7 @@
         <v>43051.47</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="A349">
         <v>2025</v>
       </c>
@@ -14605,7 +14621,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="A350">
         <v>2025</v>
       </c>
@@ -14640,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="A351">
         <v>2025</v>
       </c>
@@ -14675,7 +14691,7 @@
         <v>296000</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="A352">
         <v>2025</v>
       </c>
@@ -14710,7 +14726,7 @@
         <v>741.95</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11">
       <c r="A353">
         <v>2025</v>
       </c>
@@ -14745,7 +14761,7 @@
         <v>1086286.76</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354">
         <v>2025</v>
       </c>
@@ -14780,7 +14796,7 @@
         <v>705544.56</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355">
         <v>2025</v>
       </c>
@@ -14815,7 +14831,7 @@
         <v>465419.44</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11">
       <c r="A356">
         <v>2025</v>
       </c>
@@ -14850,7 +14866,7 @@
         <v>155214.76999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357">
         <v>2025</v>
       </c>
@@ -14885,7 +14901,7 @@
         <v>224432.69</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11">
       <c r="A358">
         <v>2025</v>
       </c>
@@ -14920,7 +14936,7 @@
         <v>2783.43</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359">
         <v>2025</v>
       </c>
@@ -14955,7 +14971,7 @@
         <v>3151320.39</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360">
         <v>2025</v>
       </c>
@@ -14990,7 +15006,7 @@
         <v>319942.03000000003</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11">
       <c r="A361">
         <v>2025</v>
       </c>
@@ -15025,7 +15041,7 @@
         <v>283871.75</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11">
       <c r="A362">
         <v>2025</v>
       </c>
@@ -15060,7 +15076,7 @@
         <v>1851839.16</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11">
       <c r="A363">
         <v>2025</v>
       </c>
@@ -15095,7 +15111,7 @@
         <v>36240.11</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11">
       <c r="A364">
         <v>2025</v>
       </c>
@@ -15130,7 +15146,7 @@
         <v>758513.24</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365">
         <v>2025</v>
       </c>
@@ -15165,7 +15181,7 @@
         <v>350315.67</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366">
         <v>2025</v>
       </c>
@@ -15200,7 +15216,7 @@
         <v>621424.57999999996</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11">
       <c r="A367">
         <v>2025</v>
       </c>
@@ -15235,7 +15251,7 @@
         <v>4886187.07</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11">
       <c r="A368">
         <v>2025</v>
       </c>
@@ -15270,7 +15286,7 @@
         <v>3122940.36</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369">
         <v>2025</v>
       </c>
@@ -15305,7 +15321,7 @@
         <v>515.15</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11">
       <c r="A370">
         <v>2025</v>
       </c>
@@ -15340,7 +15356,7 @@
         <v>29097.09</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11">
       <c r="A371">
         <v>2025</v>
       </c>
@@ -15375,7 +15391,7 @@
         <v>258146.38</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372">
         <v>2025</v>
       </c>
@@ -15410,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373">
         <v>2025</v>
       </c>
@@ -15445,7 +15461,7 @@
         <v>1097633.02</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11">
       <c r="A374">
         <v>2025</v>
       </c>
@@ -15480,7 +15496,7 @@
         <v>230951.96</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11">
       <c r="A375">
         <v>2025</v>
       </c>
@@ -15515,7 +15531,7 @@
         <v>6786537.9500000002</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11">
       <c r="A376">
         <v>2025</v>
       </c>
@@ -15550,7 +15566,7 @@
         <v>91194.44</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11">
       <c r="A377">
         <v>2025</v>
       </c>
@@ -15585,18 +15601,18 @@
         <v>2564.23</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:11" ht="32.25" customHeight="1">
       <c r="C379" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F379" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H379" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F379" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="H379" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:11" ht="27.75" customHeight="1">
       <c r="B380" s="1"/>
       <c r="C380" s="3">
         <f>SUM(K2:K377)</f>
@@ -15625,17 +15641,17 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <f>MAX('despesa_funcao (1)'!I:IC)</f>
         <v>21136072.57</v>
